--- a/hw03/hw03_report_tables.xlsx
+++ b/hw03/hw03_report_tables.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="f0" sheetId="1" r:id="rId1"/>
+    <sheet name="f2" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
-  <si>
-    <t>actual</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
   <si>
     <t>#records</t>
   </si>
@@ -44,12 +43,6 @@
     <t>group size</t>
   </si>
   <si>
-    <t>F0</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
     <t>approx</t>
   </si>
   <si>
@@ -57,13 +50,86 @@
   </si>
   <si>
     <t>access log</t>
+  </si>
+  <si>
+    <t>~4 min</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>~40 min</t>
+  </si>
+  <si>
+    <t>~28 min</t>
+  </si>
+  <si>
+    <t>~3 min</t>
+  </si>
+  <si>
+    <r>
+      <t>actual F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>actual F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>~9 sec</t>
+  </si>
+  <si>
+    <t>~90 sec</t>
+  </si>
+  <si>
+    <t>~15 min</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Somma</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Totale parziale</t>
+  </si>
+  <si>
+    <t>Conteggio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +139,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -117,16 +192,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -441,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A2:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,69 +542,533 @@
     <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" customWidth="1"/>
+    <col min="14" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5375</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6208</v>
+      </c>
+      <c r="G3" s="1">
+        <f>IF(F3=0, "", ABS(SUM(E3,-F3)))</f>
+        <v>833</v>
+      </c>
+      <c r="H3" s="1">
+        <f>IFERROR(ROUND(G3/E3, 3), "")</f>
+        <v>0.155</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5375</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5996</v>
+      </c>
+      <c r="G4" s="1">
+        <f>IF(F4=0, "", ABS(SUM(E4,-F4)))</f>
+        <v>621</v>
+      </c>
+      <c r="H4" s="1">
+        <f>IFERROR(ROUND(G4/E4, 3), "")</f>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5375</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6427</v>
+      </c>
+      <c r="G5" s="1">
+        <f>IF(F5=0, "", ABS(SUM(E5,-F5)))</f>
+        <v>1052</v>
+      </c>
+      <c r="H5" s="1">
+        <f>IFERROR(ROUND(G5/E5, 3), "")</f>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5375</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6793</v>
+      </c>
+      <c r="G6" s="1">
+        <f>IF(F6=0, "", ABS(SUM(E6,-F6)))</f>
+        <v>1418</v>
+      </c>
+      <c r="H6" s="1">
+        <f>IFERROR(ROUND(G6/E6, 3), "")</f>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5375</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6653</v>
+      </c>
+      <c r="G7" s="1">
+        <f>IF(F7=0, "", ABS(SUM(E7,-F7)))</f>
+        <v>1278</v>
+      </c>
+      <c r="H7" s="1">
+        <f>IFERROR(ROUND(G7/E7, 3), "")</f>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5375</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6746</v>
+      </c>
+      <c r="G8" s="1">
+        <f>IF(F8=0, "", ABS(SUM(E8,-F8)))</f>
+        <v>1371</v>
+      </c>
+      <c r="H8" s="1">
+        <f>IFERROR(ROUND(G8/E8, 3), "")</f>
+        <v>0.255</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5375</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6716</v>
+      </c>
+      <c r="G9" s="1">
+        <f>IF(F9=0, "", ABS(SUM(E9,-F9)))</f>
+        <v>1341</v>
+      </c>
+      <c r="H9" s="1">
+        <f>IFERROR(ROUND(G9/E9, 3), "")</f>
+        <v>0.249</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1891715</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>81983</v>
+      </c>
+      <c r="F10" s="1">
+        <v>95950</v>
+      </c>
+      <c r="G10" s="1">
+        <f>IF(F10=0, "", ABS(SUM(E10,-F10)))</f>
+        <v>13967</v>
+      </c>
+      <c r="H10" s="1">
+        <f>IFERROR(ROUND(G10/E10, 3), "")</f>
+        <v>0.17</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1891715</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>81983</v>
+      </c>
+      <c r="F11" s="1">
+        <v>112144</v>
+      </c>
+      <c r="G11" s="1">
+        <f>IF(F11=0, "", ABS(SUM(E11,-F11)))</f>
+        <v>30161</v>
+      </c>
+      <c r="H11" s="1">
+        <f>IFERROR(ROUND(G11/E11, 3), "")</f>
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1891715</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>81983</v>
+      </c>
+      <c r="F12" s="1">
+        <v>99334</v>
+      </c>
+      <c r="G12" s="1">
+        <f>IF(F12=0, "", ABS(SUM(E12,-F12)))</f>
+        <v>17351</v>
+      </c>
+      <c r="H12" s="1">
+        <f>IFERROR(ROUND(G12/E12, 3), "")</f>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1891715</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1">
+        <v>81983</v>
+      </c>
+      <c r="F13" s="1">
+        <v>102837</v>
+      </c>
+      <c r="G13" s="1">
+        <f>IF(F13=0, "", ABS(SUM(E13,-F13)))</f>
+        <v>20854</v>
+      </c>
+      <c r="H13" s="1">
+        <f>IFERROR(ROUND(G13/E13, 3), "")</f>
+        <v>0.254</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="str">
+        <f>IF(F14=0, "", ABS(SUM(E14,-F14)))</f>
+        <v/>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>IFERROR(ROUND(G14/E14, 3), "")</f>
+        <v/>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="str">
+        <f>IF(F15=0, "", ABS(SUM(E15,-F15)))</f>
+        <v/>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>IFERROR(ROUND(G15/E15, 3), "")</f>
+        <v/>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="str">
+        <f>IF(F16=0, "", ABS(SUM(E16,-F16)))</f>
+        <v/>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>IFERROR(ROUND(G16/E16, 3), "")</f>
+        <v/>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="str">
+        <f>IF(F17=0, "", ABS(SUM(E17,-F17)))</f>
+        <v/>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>IFERROR(ROUND(G17/E17, 3), "")</f>
+        <v/>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="str">
+        <f>IF(F18=0, "", ABS(SUM(E18,-F18)))</f>
+        <v/>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>IFERROR(ROUND(G18/E18, 3), "")</f>
+        <v/>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="str">
+        <f>IF(F19=0, "", ABS(SUM(E19,-F19)))</f>
+        <v/>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>IFERROR(ROUND(G19/E19, 3), "")</f>
+        <v/>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>67114</v>
@@ -523,379 +1077,492 @@
         <v>100</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>4173486</v>
       </c>
       <c r="E3" s="1">
-        <v>5375</v>
+        <v>4005133</v>
       </c>
       <c r="F3" s="1">
-        <v>13414</v>
+        <f>IF(E3=0, "", ABS(SUM(D3,-E3)))</f>
+        <v>168353</v>
       </c>
       <c r="G3" s="1">
-        <v>8039</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1.496</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1">
-        <v>67114</v>
-      </c>
-      <c r="L3" s="1">
-        <v>100</v>
-      </c>
-      <c r="M3" s="1">
-        <v>4173486</v>
-      </c>
-      <c r="N3" s="1">
-        <v>4005133</v>
-      </c>
-      <c r="O3" s="1">
-        <v>168353</v>
-      </c>
-      <c r="P3" s="1">
+        <f>IFERROR(ROUND(F3/D3, 3), "")</f>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>67114</v>
       </c>
       <c r="C4" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="1">
-        <v>20</v>
+        <v>4173486</v>
       </c>
       <c r="E4" s="1">
-        <v>5375</v>
+        <v>4353175</v>
       </c>
       <c r="F4" s="1">
-        <v>18329</v>
+        <f>IF(E4=0, "", ABS(SUM(D4,-E4)))</f>
+        <v>179689</v>
       </c>
       <c r="G4" s="1">
-        <v>12954</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2.41</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1">
-        <v>67114</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M4" s="1">
-        <v>4173486</v>
-      </c>
-      <c r="N4" s="1">
-        <v>4353175</v>
-      </c>
-      <c r="O4" s="1">
-        <v>179689</v>
-      </c>
-      <c r="P4" s="1">
+        <f>IFERROR(ROUND(F4/D4, 3), "")</f>
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>67114</v>
       </c>
       <c r="C5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4173486</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4185496</v>
+      </c>
+      <c r="F5" s="1">
+        <f>IF(E5=0, "", ABS(SUM(D5,-E5)))</f>
+        <v>12010</v>
+      </c>
+      <c r="G5" s="1">
+        <f>IFERROR(ROUND(F5/D5, 3), "")</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1891715</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1381527483</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1327400709</v>
+      </c>
+      <c r="F6" s="1">
+        <f>IF(E6=0, "", ABS(SUM(D6,-E6)))</f>
+        <v>54126774</v>
+      </c>
+      <c r="G6" s="1">
+        <f>IFERROR(ROUND(F6/D6, 3), "")</f>
+        <v>3.9E-2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1891715</v>
+      </c>
+      <c r="C7" s="1">
         <v>1000</v>
       </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5375</v>
-      </c>
-      <c r="F5" s="1">
-        <v>11955</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6580</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.224</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1">
-        <v>67114</v>
-      </c>
-      <c r="L5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="M5" s="1">
-        <v>4173486</v>
-      </c>
-      <c r="N5" s="1">
-        <v>4185496</v>
-      </c>
-      <c r="O5" s="1">
-        <v>12010</v>
-      </c>
-      <c r="P5" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>67114</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5375</v>
-      </c>
-      <c r="F6" s="1">
-        <v>16202</v>
-      </c>
-      <c r="G6" s="1">
-        <v>10827</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2.0139999999999998</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>67114</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10000</v>
-      </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>1381527483</v>
       </c>
       <c r="E7" s="1">
-        <v>5375</v>
+        <v>1391729831</v>
       </c>
       <c r="F7" s="1">
-        <v>12646</v>
+        <f>IF(E7=0, "", ABS(SUM(D7,-E7)))</f>
+        <v>10202348</v>
       </c>
       <c r="G7" s="1">
-        <v>7271</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1.353</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>67114</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>100</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5375</v>
-      </c>
-      <c r="F8" s="1">
-        <v>21967</v>
-      </c>
-      <c r="G8" s="1">
-        <v>16592</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3.0870000000000002</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>67114</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5375</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <f>IFERROR(ROUND(F7/D7, 3), "")</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="str">
+        <f>IF(E8=0, "", ABS(SUM(D8,-E8)))</f>
+        <v/>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>IFERROR(ROUND(F8/D8, 3), "")</f>
+        <v/>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1" t="str">
+        <f>IF(E9=0, "", ABS(SUM(D9,-E9)))</f>
+        <v/>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>IFERROR(ROUND(F9/D9, 3), "")</f>
+        <v/>
+      </c>
       <c r="H9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1" t="str">
+        <f>IF(E10=0, "", ABS(SUM(D10,-E10)))</f>
+        <v/>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>IFERROR(ROUND(F10/D10, 3), "")</f>
+        <v/>
+      </c>
       <c r="H10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1" t="str">
+        <f>IF(E11=0, "", ABS(SUM(D11,-E11)))</f>
+        <v/>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>IFERROR(ROUND(F11/D11, 3), "")</f>
+        <v/>
+      </c>
       <c r="H11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1" t="str">
+        <f>IF(E12=0, "", ABS(SUM(D12,-E12)))</f>
+        <v/>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>IFERROR(ROUND(F12/D12, 3), "")</f>
+        <v/>
+      </c>
       <c r="H12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1" t="str">
+        <f>IF(E13=0, "", ABS(SUM(D13,-E13)))</f>
+        <v/>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>IFERROR(ROUND(F13/D13, 3), "")</f>
+        <v/>
+      </c>
       <c r="H13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1891715</v>
-      </c>
-      <c r="C14" s="1">
-        <v>100</v>
-      </c>
-      <c r="D14" s="1">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1">
-        <v>81983</v>
-      </c>
-      <c r="F14" s="1">
-        <v>112144</v>
-      </c>
-      <c r="G14" s="1">
-        <v>30161</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1891715</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1">
-        <v>1381527483</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="str">
+        <f>IF(E14=0, "", ABS(SUM(D14,-E14)))</f>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>IFERROR(ROUND(F14/D14, 3), "")</f>
+        <v/>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="str">
+        <f>IF(E15=0, "", ABS(SUM(D15,-E15)))</f>
+        <v/>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>IFERROR(ROUND(F15/D15, 3), "")</f>
+        <v/>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="str">
+        <f>IF(E16=0, "", ABS(SUM(D16,-E16)))</f>
+        <v/>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>IFERROR(ROUND(F16/D16, 3), "")</f>
+        <v/>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="str">
+        <f>IF(E17=0, "", ABS(SUM(D17,-E17)))</f>
+        <v/>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f>IFERROR(ROUND(F17/D17, 3), "")</f>
+        <v/>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="str">
+        <f>IF(E18=0, "", ABS(SUM(D18,-E18)))</f>
+        <v/>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f>IFERROR(ROUND(F18/D18, 3), "")</f>
+        <v/>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="str">
+        <f>IF(E19=0, "", ABS(SUM(D19,-E19)))</f>
+        <v/>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>IFERROR(ROUND(F19/D19, 3), "")</f>
+        <v/>
+      </c>
+      <c r="H19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5375</v>
+      </c>
+      <c r="F2" s="4">
+        <v>13414</v>
+      </c>
+      <c r="G2" s="1">
+        <v>8039</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5375</v>
+      </c>
+      <c r="F3" s="4">
+        <v>18329</v>
+      </c>
+      <c r="G3" s="1">
+        <v>12954</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5375</v>
+      </c>
+      <c r="F4" s="4">
+        <v>11955</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6580</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5375</v>
+      </c>
+      <c r="F5" s="1">
+        <v>16202</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10827</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.0139999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5375</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12646</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7271</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5375</v>
+      </c>
+      <c r="F7" s="1">
+        <v>21967</v>
+      </c>
+      <c r="G7" s="1">
+        <v>16592</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.0870000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>